--- a/biology/Botanique/Technicien_forestier/Technicien_forestier.xlsx
+++ b/biology/Botanique/Technicien_forestier/Technicien_forestier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le technicien forestier s'occupe de la gestion et de l'entretien des forêts. Pour cela il décide des arbres à abattre ou à planter et grâce aux inventaires forestiers effectués en forêt, où il observe et analyse l'état actuel de la forêt, décide des traitements à appliquer afin d'aménager celle-ci dans une perspective d'aménagement durable. Il peut diriger les agents techniques forestiers (gardes forestiers) mais est souvent avec eux en forêt. Le technicien forestier est en temps normal sous les ordres de l'ingénieur forestier.
@@ -514,7 +526,9 @@
           <t>Qualités nécessaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aimer la nature et le milieu naturel
 Endurance physique pour se déplacer par tous les temps
@@ -549,7 +563,9 @@
           <t>Diplôme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>BTA (brevet de technicien agricole)
 Brevet de technicien supérieur agricole (BTSA) Gestion forestière, autrefois appelé BTSA Productions forestières
